--- a/outputs/2_dists_by_taxcode_proc_lake.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_lake.xlsx
@@ -349,7 +349,7 @@
     <t xml:space="preserve">01007</t>
   </si>
   <si>
-    <t xml:space="preserve">BONNIE-BROOK FPD</t>
+    <t xml:space="preserve">BEACH PARK FPD</t>
   </si>
   <si>
     <t xml:space="preserve">01010</t>
@@ -1600,7 +1600,7 @@
     <t xml:space="preserve">14013</t>
   </si>
   <si>
-    <t xml:space="preserve">BARRINGTON COUNTRYSIDE PKD</t>
+    <t xml:space="preserve">BARRINGTON HILLS PKD</t>
   </si>
   <si>
     <t xml:space="preserve">14016</t>
@@ -3901,7 +3901,7 @@
     <t xml:space="preserve">05040</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND LAKE BEACH</t>
+    <t xml:space="preserve">ROUND LAKE BCH</t>
   </si>
   <si>
     <t xml:space="preserve">05043</t>
@@ -3958,7 +3958,7 @@
     <t xml:space="preserve">05079</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND LAKE HEIGHTS</t>
+    <t xml:space="preserve">ROUND LAKE HTS</t>
   </si>
   <si>
     <t xml:space="preserve">05080</t>
@@ -4921,7 +4921,7 @@
     <t xml:space="preserve">E 1; E 102; E 103; E 106; E 109; E 112; E 114; E 15; E 24; E 26; E 3; E 33; E 34; E 36; E 37; E 38; E 41; E 46; E 50; E 56; E 6; E 65; E 67; E 68; E 70; E 72; E 73; E 75; E 76; E 79; E 96; ESD_002; ESD_112/1; ESD_112/108BD; ESD_112/7</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTIOCH FPD; ARDEN SHORE NORTH FPD; ARDEN SHORE SOUTH FPD; BARRINGTON-COUNTRYSIDE FPD; BONNIE-BROOK FPD; CARY FPD; COUNTRYSIDE FPD; DEERFIELD-BANNOCKBURN FPD; FOX LAKE FPD; FOX RIVER GROVE FPD; GRAYSLAKE FPD; GREATER ROUND LAKE FPD; LAKE VILLA FPD; LAKE ZURICH FPD; LIBERTYVILLE FPD; LINCOLNSHIRE-RIVERWOODS FPD; LONG GROVE FPD; NEWPORT FPD; ROCKLAND FPD; WARREN-WAUKEGAN FPD; WAUCONDA FPD; WINTHROP HARBOR FPD</t>
+    <t xml:space="preserve">ANTIOCH FPD; ARDEN SHORE NORTH FPD; ARDEN SHORE SOUTH FPD; BARRINGTON-COUNTRYSIDE FPD; BEACH PARK FPD; CARY FPD; COUNTRYSIDE FPD; DEERFIELD-BANNOCKBURN FPD; FOX LAKE FPD; FOX RIVER GROVE FPD; GRAYSLAKE FPD; GREATER ROUND LAKE FPD; LAKE VILLA FPD; LAKE ZURICH FPD; LIBERTYVILLE FPD; LINCOLNSHIRE-RIVERWOODS FPD; LONG GROVE FPD; NEWPORT FPD; ROCKLAND FPD; WARREN-WAUKEGAN FPD; WAUCONDA FPD; WINTHROP HARBOR FPD</t>
   </si>
   <si>
     <t xml:space="preserve">H 113; H 115; H 117; H 120; H 121; H 124; H 125; H 126; H 127; H 128; H 155; H 156; HSD_157</t>
@@ -4933,10 +4933,10 @@
     <t xml:space="preserve">LAKE BLUFF MOSQ ABT DIST; SOUTH LAKE MOSQ ABT DIST</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTIOCH; BANNOCKBURN; BARRINGTON; BARRINGTON HILLS; BEACH PARK; BUFFALO GROVE; DEER PARK; DEERFIELD; FOX LAKE; FOX RIVER GROVE; GRAYSLAKE; GREEN OAKS; GURNEE; HAINESVILLE; HAWTHORN WOODS; HIGHLAND PARK; HIGHWOOD; INDIAN CREEK; ISLAND LAKE; KILDEER; LAKE BARRINGTON; LAKE BLUFF; LAKE FOREST; LAKE VILLA; LAKE ZURICH; LAKEMOOR; LIBERTYVILLE; LINCOLNSHIRE; LINDENHURST; LONG GROVE; METTAWA; MUN_ARLHT; MUN_LKBLF*; MUN_NOCHI*; MUN_NRBRK; MUN_PALTN; MUNDELEIN; N BARRINGTON; NORTH CHICAGO; OLD MILL CREEK; PARK CITY; PORT BARRINGTON; RIVERWOODS; ROUND LAKE; ROUND LAKE BEACH; ROUND LAKE HEIGHTS; ROUND LAKE PARK; THIRD LAKE; TOWER LAKES; VERNON HILLS; VOLO; WADSWORTH; WAUCONDA; WAUKEGAN; WHEELING; WINTHROP HARBOR; ZION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRINGTON COUNTRYSIDE PKD; BARRINGTON PKD; BUFFALO GROVE PKD; DEERFIELD PKD; FOSS PKD; GRANDWOOD PKD; GRAYSLAKE COMM PKD; GURNEE PKD; HIGHLAND PARK PKD; LAKE BARRINGTON-COUNTRYSIDE PKD; LAKE BLUFF PKD; LINDENHURST PKD; LONG GROVE PKD; MUNDELEIN PKD; PRK_ARLHT; ROUND LAKE AREA PKD; VERNON HILLS PKD; WAUCONDA PKD; WAUKEGAN PKD; WHEELING PKD; WILDWOOD PKD; ZION PKD</t>
+    <t xml:space="preserve">ANTIOCH; BANNOCKBURN; BARRINGTON; BARRINGTON HILLS; BEACH PARK; BUFFALO GROVE; DEER PARK; DEERFIELD; FOX LAKE; FOX RIVER GROVE; GRAYSLAKE; GREEN OAKS; GURNEE; HAINESVILLE; HAWTHORN WOODS; HIGHLAND PARK; HIGHWOOD; INDIAN CREEK; ISLAND LAKE; KILDEER; LAKE BARRINGTON; LAKE BLUFF; LAKE FOREST; LAKE VILLA; LAKE ZURICH; LAKEMOOR; LIBERTYVILLE; LINCOLNSHIRE; LINDENHURST; LONG GROVE; METTAWA; MUN_ARLHT; MUN_LKBLF*; MUN_NOCHI*; MUN_NRBRK; MUN_PALTN; MUNDELEIN; N BARRINGTON; NORTH CHICAGO; OLD MILL CREEK; PARK CITY; PORT BARRINGTON; RIVERWOODS; ROUND LAKE; ROUND LAKE BCH; ROUND LAKE HTS; ROUND LAKE PARK; THIRD LAKE; TOWER LAKES; VERNON HILLS; VOLO; WADSWORTH; WAUCONDA; WAUKEGAN; WHEELING; WINTHROP HARBOR; ZION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRINGTON HILLS PKD; BARRINGTON PKD; BUFFALO GROVE PKD; DEERFIELD PKD; FOSS PKD; GRANDWOOD PKD; GRAYSLAKE COMM PKD; GURNEE PKD; HIGHLAND PARK PKD; LAKE BARRINGTON-COUNTRYSIDE PKD; LAKE BLUFF PKD; LINDENHURST PKD; LONG GROVE PKD; MUNDELEIN PKD; PRK_ARLHT; ROUND LAKE AREA PKD; VERNON HILLS PKD; WAUCONDA PKD; WAUKEGAN PKD; WHEELING PKD; WILDWOOD PKD; ZION PKD</t>
   </si>
   <si>
     <t xml:space="preserve">ISLAND LAKE SAN DIST; LAKES REGION SAN DIST; LINDENHURST SAN DIST; NORTH SHORE SAN DIST; ROUND LAKE SAN DIST</t>

--- a/outputs/2_dists_by_taxcode_proc_lake.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_lake.xlsx
@@ -1348,7 +1348,7 @@
     <t xml:space="preserve">13003</t>
   </si>
   <si>
-    <t xml:space="preserve">ISLAND LAKE SAN DIST</t>
+    <t xml:space="preserve">NORTHERN MORAINE WTR RECLAMATION</t>
   </si>
   <si>
     <t xml:space="preserve">13005</t>
@@ -4939,7 +4939,7 @@
     <t xml:space="preserve">BARRINGTON HILLS PKD; BARRINGTON PKD; BUFFALO GROVE PKD; DEERFIELD PKD; FOSS PKD; GRANDWOOD PKD; GRAYSLAKE COMM PKD; GURNEE PKD; HIGHLAND PARK PKD; LAKE BARRINGTON-COUNTRYSIDE PKD; LAKE BLUFF PKD; LINDENHURST PKD; LONG GROVE PKD; MUNDELEIN PKD; PRK_ARLHT; ROUND LAKE AREA PKD; VERNON HILLS PKD; WAUCONDA PKD; WAUKEGAN PKD; WHEELING PKD; WILDWOOD PKD; ZION PKD</t>
   </si>
   <si>
-    <t xml:space="preserve">ISLAND LAKE SAN DIST; LAKES REGION SAN DIST; LINDENHURST SAN DIST; NORTH SHORE SAN DIST; ROUND LAKE SAN DIST</t>
+    <t xml:space="preserve">LAKES REGION SAN DIST; LINDENHURST SAN DIST; NORTH SHORE SAN DIST; NORTHERN MORAINE WTR RECLAMATION; ROUND LAKE SAN DIST</t>
   </si>
   <si>
     <t xml:space="preserve">SPECIAL ROAD IMPROVEMENT ANTIOCH; SPECIAL ROAD IMPROVEMENT AVON; SPECIAL ROAD IMPROVEMENT CUBA; SPECIAL ROAD IMPROVEMENT ELA; SPECIAL ROAD IMPROVEMENT FREMONT; SPECIAL ROAD IMPROVEMENT GRANT; SPECIAL ROAD IMPROVEMENT LAKE VILLA; SPECIAL ROAD IMPROVEMENT NEWPORT; SPECIAL ROAD IMPROVEMENT VERNON; SPECIAL ROAD IMPROVEMENT WARREN; SPECIAL ROAD IMPROVEMENT WAUCONDA</t>
